--- a/public/files/formatcsv.xlsx
+++ b/public/files/formatcsv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTS3\lala\web\Express-Payroll\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhaf\Documents\Custom Office Templates\MAGANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9A7D9A-F7E5-4FC9-A118-80D6423AC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7A83C-E1E4-49BA-B49B-D41F28D9043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9E0AAA3E-FA4C-45FF-95A1-9695AE96C787}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
